--- a/src/pyprotolinc/actuarial/c_src/cresult.xlsx
+++ b/src/pyprotolinc/actuarial/c_src/cresult.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:U1443"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
